--- a/public/assets/result/Saifudin_4.xlsx
+++ b/public/assets/result/Saifudin_4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>REPUBLIK INDONESIA</t>
   </si>
@@ -148,13 +148,10 @@
     <t>PML</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>WAHYU RAZI INDRAWAN</t>
   </si>
   <si>
-    <t>HOZEIN ARIDILLAH</t>
+    <t>SAIFUDIN</t>
   </si>
 </sst>
 </file>
@@ -907,16 +904,16 @@
         <v>24</v>
       </c>
       <c r="I13" s="5">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="J13" s="5">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="K13" s="5">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="L13" s="5">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="M13" s="5">
         <v>2</v>
@@ -944,16 +941,16 @@
         <v>27</v>
       </c>
       <c r="I14" s="5">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="J14" s="5">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="K14" s="5">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="L14" s="5">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="M14" s="5">
         <v>2</v>
@@ -981,16 +978,16 @@
         <v>30</v>
       </c>
       <c r="I15" s="5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J15" s="5">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K15" s="5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="5">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="5">
         <v>2</v>
@@ -1018,16 +1015,16 @@
         <v>27</v>
       </c>
       <c r="I16" s="5">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="J16" s="5">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="K16" s="5">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L16" s="5">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="M16" s="5">
         <v>2</v>
@@ -1055,16 +1052,16 @@
         <v>24</v>
       </c>
       <c r="I17" s="5">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J17" s="5">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="K17" s="5">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L17" s="5">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M17" s="5">
         <v>2</v>
@@ -1129,16 +1126,16 @@
         <v>27</v>
       </c>
       <c r="I19" s="5">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="J19" s="5">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K19" s="5">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="L19" s="5">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M19" s="5">
         <v>2</v>
@@ -1166,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="I20" s="5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J20" s="5">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="K20" s="5">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L20" s="5">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20"/>
     </row>
@@ -1227,9 +1224,7 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="K26" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="N26" s="1"/>
     </row>
@@ -1245,10 +1240,10 @@
     </row>
     <row r="29" spans="1:14">
       <c r="D29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="L29" s="4"/>
       <c r="N29" s="1"/>
